--- a/biology/Histoire de la zoologie et de la botanique/Gavin_Maxwell/Gavin_Maxwell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gavin_Maxwell/Gavin_Maxwell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gavin Maxwell (15 juillet 1914 – 7 septembre 1969) est un naturaliste et écrivain écossais, connu pour ses travaux sur les loutres d'Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gavin Maxwell (15 juillet 1914 – 7 septembre 1969) est un naturaliste et écrivain écossais, connu pour ses travaux sur les loutres d'Europe.
 Pendant la Seconde Guerre mondiale, il est instructeur pour le Special Operations Executive.
 Il écrit le livre Ring of Bright Water (1960), dans lequel il raconte comment il rapporte une loutre d'Irak et l'éleve en Écosse. Ce livre est vendu à plus d'un million d'exemplaires et donne lieu à un film avec Bill Travers et Virginia McKenna, en 1969. Le titre Ring of Bright Water vient d'un poème de Kathleen Raine (1908-2003) qui a dit dans son autobiographie que Maxwell avait été l'amour de sa vie.
 </t>
